--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2223064.675804107</v>
+        <v>2327244.31025518</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9486083.84370932</v>
+        <v>9486083.843709322</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>75.45713216103836</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>320.5495387386622</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>49.00186811941023</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>142.6406172332765</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>108.2462644793323</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>25.73722946637147</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>70.2726614641175</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>82.04744417649036</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,10 +1113,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>351.5147875349031</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>168.5177247035049</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>106.8574981903362</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>25.7302598673498</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>40.62253010341744</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>158.2465685970576</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>139.9537444639932</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>23.08134457786378</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2056,19 +2058,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>239.8230115056624</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>129.3292263586725</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>185.0663491738894</v>
+        <v>219.9857967652655</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701343</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>5.640152769374993</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2959,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>25.2632269748852</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>26.07046444232026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>177.1006680594869</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>142.1343012721633</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="39">
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365955</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>14.19454216862197</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>193.9313104494263</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4028,10 +4030,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>131.2944603446578</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943749</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943749</v>
+        <v>1145.385526619113</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943749</v>
+        <v>787.1198280123626</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>401.3315754141184</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1850.959245990303</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C4" t="n">
-        <v>1682.023063062396</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D4" t="n">
-        <v>1632.526226578143</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1632.526226578143</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1632.526226578143</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952862</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797171</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.65004939672</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609172</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435998</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005524</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>2623.050455131168</v>
+        <v>1471.616043866783</v>
       </c>
       <c r="V4" t="n">
-        <v>2368.365966925281</v>
+        <v>1471.616043866783</v>
       </c>
       <c r="W4" t="n">
-        <v>2078.94879688832</v>
+        <v>1182.198873829822</v>
       </c>
       <c r="X4" t="n">
-        <v>1850.959245990303</v>
+        <v>954.2093229318045</v>
       </c>
       <c r="Y4" t="n">
-        <v>1850.959245990303</v>
+        <v>954.2093229318045</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>937.4502275783891</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2729.809727313141</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2377.041072043026</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.041072043026</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>1986.901740067214</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1844.418341849614</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1844.418341849614</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1622.65172641914</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1333.548859544783</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1333.548859544783</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1333.548859544783</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>1105.559308646766</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y7" t="n">
-        <v>1105.559308646766</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1137.401303008948</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>779.1356044021979</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3155.385897666236</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2824.323010322666</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2824.323010322666</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,25 +4898,25 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>626.9042569062804</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4960,16 +4962,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1729.527223987095</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1729.527223987095</v>
+        <v>1619.788045190676</v>
       </c>
       <c r="V10" t="n">
-        <v>1474.842735781208</v>
+        <v>1365.103556984789</v>
       </c>
       <c r="W10" t="n">
-        <v>1185.425565744247</v>
+        <v>1075.686386947828</v>
       </c>
       <c r="X10" t="n">
-        <v>957.4360148462299</v>
+        <v>847.6968360498105</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.4360148462299</v>
+        <v>626.9042569062804</v>
       </c>
     </row>
     <row r="11">
@@ -5036,46 +5038,46 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5118,7 +5120,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5127,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.613315601761</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>888.6771326738537</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>738.560493261518</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>590.6473996791249</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>443.7574521812145</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>276.5613528960944</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>134.8495217382925</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5218,31 +5220,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235161</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235161</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510508</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.043910473548</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.05435957553</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.261780432</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5466,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2122.740830584667</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5519,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C19" t="n">
-        <v>802.9288273958734</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
         <v>631.7012443408906</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>3194.056622594531</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6075,16 +6077,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>4034.395443092589</v>
+        <v>1466.177978334236</v>
       </c>
       <c r="W25" t="n">
-        <v>3744.978273055629</v>
+        <v>1176.760808297275</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.978273055629</v>
+        <v>948.7712573992578</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>727.9786782557277</v>
       </c>
     </row>
     <row r="26">
@@ -6203,13 +6205,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>3053.935450426146</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>2884.99926749824</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>2734.882628085904</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4665.314741312851</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>4482.459906967755</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>4262.858441990697</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>3973.783215334895</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>3973.783215334895</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>3684.366045297934</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>3456.376494399916</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>3235.583915256386</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7020,13 +7022,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
         <v>1896.176478190825</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2303.393082295247</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2083.791617318188</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1794.716390662386</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267656</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1492.495641279528</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7676,22 +7678,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300425</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>3807.864035926977</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N45" t="n">
-        <v>3905.661761784424</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O45" t="n">
-        <v>4457.571492023711</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>40.64330621514809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>127.9379057921866</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>77.45170586329508</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>125.5341284403486</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>37.91759473995532</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>67.07129414993861</v>
+        <v>32.15184655856248</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>212.9445005827198</v>
       </c>
     </row>
     <row r="29">
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>41.11201973523649</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>38.89198472948132</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>40.30478226780133</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>211.5151132204152</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>58.20633287440168</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>86.11098998263051</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675044</v>
@@ -26326,34 +26328,34 @@
         <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="N2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="P2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675046</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813251</v>
@@ -26427,25 +26429,25 @@
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-910641.4819489062</v>
+        <v>-910641.4819489059</v>
       </c>
       <c r="C6" t="n">
-        <v>418103.2637786868</v>
+        <v>418103.2637786866</v>
       </c>
       <c r="D6" t="n">
-        <v>418103.2637786868</v>
+        <v>418103.2637786865</v>
       </c>
       <c r="E6" t="n">
-        <v>168267.8698494608</v>
+        <v>168267.8698494611</v>
       </c>
       <c r="F6" t="n">
+        <v>493680.3316568159</v>
+      </c>
+      <c r="G6" t="n">
         <v>493680.3316568161</v>
       </c>
-      <c r="G6" t="n">
-        <v>493680.3316568159</v>
-      </c>
       <c r="H6" t="n">
-        <v>493680.3316568159</v>
+        <v>493680.331656816</v>
       </c>
       <c r="I6" t="n">
-        <v>493680.3316568159</v>
+        <v>493680.3316568161</v>
       </c>
       <c r="J6" t="n">
-        <v>276149.1292595382</v>
+        <v>276149.1292595387</v>
       </c>
       <c r="K6" t="n">
         <v>493680.3316568158</v>
       </c>
       <c r="L6" t="n">
-        <v>493680.3316568161</v>
+        <v>493680.3316568159</v>
       </c>
       <c r="M6" t="n">
         <v>408625.3037213042</v>
       </c>
       <c r="N6" t="n">
+        <v>493680.3316568158</v>
+      </c>
+      <c r="O6" t="n">
         <v>493680.3316568159</v>
       </c>
-      <c r="O6" t="n">
-        <v>493680.3316568158</v>
-      </c>
       <c r="P6" t="n">
-        <v>493680.3316568157</v>
+        <v>493680.3316568162</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4732379112234</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86.32650700304924</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>99.61360489880212</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>143.5712209723364</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>273.6841055929294</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>302.0150290037634</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>75.14838655881374</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>6.884708493556971</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>30.41558253735872</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>82.47744725539712</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>112.691451085833</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>260.4815783382631</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28290,7 +28292,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28375,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -30289,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30441,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>409.0029787211726</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32099,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32552,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>399.4395445221152</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32795,10 +32797,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2687847673337</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>570.6116741576916</v>
+        <v>431.9220107744075</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33044,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33740,16 +33742,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>677.2750468965965</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,16 +33982,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N39" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>175.960367665998</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>230.1272937575226</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>447.1326187913569</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>266.8689447991542</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998944</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>265.4651371077849</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36443,10 +36445,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>27.13475084531539</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>432.0572943778175</v>
+        <v>293.3676309945333</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36692,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37315,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>535.1410129745782</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,16 +37630,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N39" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>98.7855816741893</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>313.1582113770266</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2327244.31025518</v>
+        <v>2323231.700241186</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>265.2378569961691</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>320.5495387386622</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>8.749424143405683</v>
       </c>
       <c r="U4" t="n">
-        <v>142.6406172332765</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>208.5689900105812</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>108.2462644793323</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>70.2726614641175</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>351.5147875349031</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>109.6870817625076</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>25.7302598673498</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814136</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>158.2465685970576</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.9537444639932</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>275.3300239197279</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>5.421623586793212</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>239.8230115056624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>129.3292263586725</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712597</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180832</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>219.9857967652655</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2563,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722645</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788180269</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.640152769374993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>25.2632269748852</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487373</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>177.1006680594869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U37" t="n">
-        <v>245.8796921214428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365955</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>14.19454216862197</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>193.9313104494263</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>131.2944603446578</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559525</v>
+        <v>2244.121949002411</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.385526619113</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>787.1198280123626</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>401.3315754141184</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>77.54416254678286</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>2630.721789066533</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614562</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>772.5608581015648</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1636.940404507791</v>
       </c>
       <c r="U4" t="n">
-        <v>1471.616043866783</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="V4" t="n">
-        <v>1471.616043866783</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="W4" t="n">
-        <v>1182.198873829822</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="X4" t="n">
-        <v>954.2093229318045</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>954.2093229318045</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1664.678443125551</v>
+        <v>2144.883770458458</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.71592618514</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>937.4502275783891</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.278283189673</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>452.6479724696239</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>283.7117895417171</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>283.7117895417171</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>283.7117895417171</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>452.6479724696239</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1506.36381994936</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C8" t="n">
-        <v>1137.401303008948</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D8" t="n">
-        <v>779.1356044021979</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>177.3071485155245</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013482</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4901,22 +4901,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.9042569062804</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U10" t="n">
-        <v>1619.788045190676</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V10" t="n">
-        <v>1365.103556984789</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W10" t="n">
-        <v>1075.686386947828</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X10" t="n">
-        <v>847.6968360498105</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y10" t="n">
-        <v>626.9042569062804</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5053,31 +5053,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961528</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416599</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>2122.740830584667</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U16" t="n">
-        <v>1833.665603928865</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1578.981115722978</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.8178837532264</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.455899481483</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>963.4663485834661</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.4663485834661</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3012.408157764291</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>2881.772575583814</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>2881.772575583814</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2733.859482001421</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.255922673039</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3642.838752636078</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3414.849201738061</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3194.056622594531</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>245.230692780394</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961529</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.4424804166</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1466.177978334236</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1176.760808297275</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>948.7712573992578</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>727.9786782557277</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746428</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168409</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.19898568143</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416599</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3053.935450426146</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>2884.99926749824</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>2734.882628085904</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4665.314741312851</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>4482.459906967755</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4262.858441990697</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3973.783215334895</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>3973.783215334895</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>3684.366045297934</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>3456.376494399916</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>3235.583915256386</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6782,25 +6782,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.987318831765</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U37" t="n">
-        <v>1729.097755135313</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="38">
@@ -7168,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267656</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.6374272687975</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408906</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1492.495641279528</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1203.078471242567</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1203.078471242567</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.2858920990373</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>122.8084169651556</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>127.9379057921866</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>77.45170586329508</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>10.85445046951628</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>211.9838267404951</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>46.69998683092865</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>37.91759473995532</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038485</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219408</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>32.15184655856248</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.11969353038523</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.9445005827198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.11201973523649</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U37" t="n">
-        <v>40.30478226780133</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>211.5151132204152</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>58.20633287440168</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>86.11098998263051</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675046</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813242</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678115</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678108</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26481,19 +26481,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-910641.4819489059</v>
+        <v>-910641.4819489063</v>
       </c>
       <c r="C6" t="n">
-        <v>418103.2637786866</v>
+        <v>418103.2637786869</v>
       </c>
       <c r="D6" t="n">
-        <v>418103.2637786865</v>
+        <v>418103.2637786863</v>
       </c>
       <c r="E6" t="n">
-        <v>168267.8698494611</v>
+        <v>167920.4905951036</v>
       </c>
       <c r="F6" t="n">
-        <v>493680.3316568159</v>
+        <v>493332.9524024589</v>
       </c>
       <c r="G6" t="n">
-        <v>493680.3316568161</v>
+        <v>493332.9524024591</v>
       </c>
       <c r="H6" t="n">
-        <v>493680.331656816</v>
+        <v>493332.952402459</v>
       </c>
       <c r="I6" t="n">
-        <v>493680.3316568161</v>
+        <v>493332.9524024588</v>
       </c>
       <c r="J6" t="n">
-        <v>276149.1292595387</v>
+        <v>275801.7500051814</v>
       </c>
       <c r="K6" t="n">
-        <v>493680.3316568158</v>
+        <v>493332.9524024593</v>
       </c>
       <c r="L6" t="n">
-        <v>493680.3316568159</v>
+        <v>493332.9524024593</v>
       </c>
       <c r="M6" t="n">
-        <v>408625.3037213042</v>
+        <v>408277.9244669473</v>
       </c>
       <c r="N6" t="n">
-        <v>493680.3316568158</v>
+        <v>493332.9524024592</v>
       </c>
       <c r="O6" t="n">
-        <v>493680.3316568159</v>
+        <v>493332.9524024586</v>
       </c>
       <c r="P6" t="n">
-        <v>493680.3316568162</v>
+        <v>493332.9524024591</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,23 +26959,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>100.0350347748384</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>86.32650700304924</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>210.7995251327635</v>
       </c>
       <c r="U4" t="n">
-        <v>143.5712209723364</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>156.7039017604264</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>273.6841055929294</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>75.14838655881374</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>30.41558253735872</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>184.9206826248128</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>183.3889571555937</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>260.4815783382631</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28292,7 +28292,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-5.652815670624369e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.157888765296472e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-2.701199264265597e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30443,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>409.0029787211726</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943058</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943054</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>431.9220107744075</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906006</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943058</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>677.2750468965965</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33973,16 +33973,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>322.7581251332984</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33994,10 +33994,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>175.960367665998</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>447.1326187913569</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>35.97859357997564</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>266.8689447991542</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998944</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>265.0837051983789</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>35.97859357997559</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066282</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>35.97859357997513</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>293.3676309945333</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762704</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>35.97859357997559</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>535.1410129745782</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37621,16 +37621,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>180.6240912112801</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>313.1582113770266</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2323231.700241186</v>
+        <v>2324992.230543971</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>265.2378569961691</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>141.4194510339621</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>8.749424143405683</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>57.94871329109015</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>208.5689900105812</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>148.4399041872973</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347168</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>120.6088074159616</v>
       </c>
       <c r="H8" t="n">
-        <v>109.6870817625076</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>6.380068175848154</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>23.6255456814136</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>104.4564809702492</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>275.3300239197279</v>
+        <v>105.6356839950556</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>32.27552175740387</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>5.421623586793212</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.421623586788372</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712597</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722645</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788180269</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>147.6895341487373</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>113.4877306469551</v>
       </c>
     </row>
     <row r="32">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>60.64713141731118</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>121.8000472740347</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2244.121949002411</v>
+        <v>2148.434869859536</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1779.472352919125</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1421.206654312374</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1035.41840171413</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>624.4324969245224</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>209.3600467695189</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410104</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066533</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066533</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066533</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="Y2" t="n">
-        <v>2630.721789066533</v>
+        <v>2535.034709923658</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614562</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.940404507791</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.837537633435</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.837537633435</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.837537633435</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>906.6048703073945</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458458</v>
+        <v>1767.878520285689</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1767.878520285689</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
         <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.48361052258</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4783,19 +4783,19 @@
         <v>1712.341567565138</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624726</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179758</v>
+        <v>985.1133520179762</v>
       </c>
       <c r="E8" t="n">
-        <v>599.3250994197315</v>
+        <v>599.3250994197319</v>
       </c>
       <c r="F8" t="n">
-        <v>188.3391946301239</v>
+        <v>188.3391946301244</v>
       </c>
       <c r="G8" t="n">
-        <v>177.3071485155245</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218342</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4843,10 +4843,10 @@
         <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605071</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
         <v>2098.94140762926</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
         <v>66.51211643218342</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1920.850034779555</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T10" t="n">
-        <v>1699.083419349081</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U10" t="n">
-        <v>1409.980552474725</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V10" t="n">
-        <v>1155.296064268838</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318776</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338602</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400721</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400721</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803939</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961528</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622705</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177312</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2517.442480416599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>408.9258559154851</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>261.012762333092</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832667</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487572</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.586158026164</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.510931370362</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192512</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.230692780394</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961529</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622705</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177312</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2517.4424804166</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167374</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876697</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597628</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597628</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597628</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597628</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746428</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168409</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6393,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614396</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179095</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961527</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622705</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177312</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2517.442480416599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>801.6605733532804</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>801.6605733532804</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,16 +6782,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7019,16 +7019,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7256,16 +7256,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277355</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
         <v>240.7066105458822</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7429,10 +7429,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>122.8084169651556</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>181.727993418995</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>10.85445046951628</v>
+        <v>180.5487903941885</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>34.09972495271781</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>211.9838267404951</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038485</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219408</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038523</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>105.0969227051397</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.63391537253447</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.327398212</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675047</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>605359.9497675039</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678108</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26456,7 +26456,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26481,19 +26481,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-910641.4819489063</v>
+        <v>-910641.4819489059</v>
       </c>
       <c r="C6" t="n">
-        <v>418103.2637786869</v>
+        <v>418103.2637786861</v>
       </c>
       <c r="D6" t="n">
-        <v>418103.2637786863</v>
+        <v>418103.2637786865</v>
       </c>
       <c r="E6" t="n">
-        <v>167920.4905951036</v>
+        <v>168233.1319240254</v>
       </c>
       <c r="F6" t="n">
-        <v>493332.9524024589</v>
+        <v>493645.5937313802</v>
       </c>
       <c r="G6" t="n">
-        <v>493332.9524024591</v>
+        <v>493645.5937313801</v>
       </c>
       <c r="H6" t="n">
-        <v>493332.952402459</v>
+        <v>493645.5937313801</v>
       </c>
       <c r="I6" t="n">
-        <v>493332.9524024588</v>
+        <v>493645.5937313802</v>
       </c>
       <c r="J6" t="n">
-        <v>275801.7500051814</v>
+        <v>276114.391334103</v>
       </c>
       <c r="K6" t="n">
-        <v>493332.9524024593</v>
+        <v>493645.5937313802</v>
       </c>
       <c r="L6" t="n">
-        <v>493332.9524024593</v>
+        <v>493645.5937313801</v>
       </c>
       <c r="M6" t="n">
-        <v>408277.9244669473</v>
+        <v>408590.5657958684</v>
       </c>
       <c r="N6" t="n">
-        <v>493332.9524024592</v>
+        <v>493645.5937313798</v>
       </c>
       <c r="O6" t="n">
-        <v>493332.9524024586</v>
+        <v>493645.5937313801</v>
       </c>
       <c r="P6" t="n">
-        <v>493332.9524024591</v>
+        <v>493645.5937313802</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,32 +26959,32 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483759</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100.0350347748384</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>153.1883133533584</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>210.7995251327635</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>160.6359400610046</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>156.7039017604264</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>206.2431374333857</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911122</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>290.3129182374919</v>
       </c>
       <c r="H8" t="n">
-        <v>184.9206826248128</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28061,7 +28061,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>183.3889571555937</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-5.652815670624369e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3.157888765296472e-12</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.701199264265597e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543346</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>169.9530009943058</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>169.9530009943054</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>436.0678650906006</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159405</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>169.9530009943058</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997564</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>35.97859357997559</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066282</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>35.97859357997513</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>302.0934576762704</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>35.97859357997559</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
